--- a/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P2A_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>4.641774229181161</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-9.564598845980687</v>
+        <v>-9.564598845980699</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>6.483679262952013</v>
@@ -655,7 +655,7 @@
         <v>5.358688094651731</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-10.7448041044466</v>
+        <v>-10.74480410444659</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>7.510299929897124</v>
@@ -664,7 +664,7 @@
         <v>5.151618021776838</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-9.931429108239097</v>
+        <v>-9.93142910823911</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.368795239833412</v>
+        <v>4.64158195598368</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2572933934295969</v>
+        <v>0.2826978068095281</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.94612265671072</v>
+        <v>-14.42420245525611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.399954589724218</v>
+        <v>3.600657768352093</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>2.393912142136473</v>
+        <v>2.337126134876774</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-14.29023812224395</v>
+        <v>-14.08301273032247</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>5.102490236700262</v>
+        <v>5.34102696103828</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.61385484083465</v>
+        <v>2.523957640033775</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-12.85913398833104</v>
+        <v>-12.67054271086526</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.31046403774022</v>
+        <v>12.24557129864942</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.853193349944835</v>
+        <v>9.348826621831192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-4.913855272021576</v>
+        <v>-4.269410292401436</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9.104508855108897</v>
+        <v>9.343936906136053</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.577409345605655</v>
+        <v>8.251233640314414</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-7.499182408386932</v>
+        <v>-7.220836515602191</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>9.965290265423445</v>
+        <v>10.09152187543286</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.600206408755017</v>
+        <v>7.506257782791849</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-6.974139562488406</v>
+        <v>-7.003495263397723</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.06778654095193891</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.1396774249135143</v>
+        <v>-0.1396774249135145</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.08029540936278189</v>
@@ -760,7 +760,7 @@
         <v>0.06636325406565859</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.1330661818852257</v>
+        <v>-0.1330661818852256</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.09966823358045895</v>
@@ -769,7 +769,7 @@
         <v>0.0683664664666447</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1317987304617943</v>
+        <v>-0.1317987304617944</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.06205735468120102</v>
+        <v>0.06530677622674423</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.003856915181710971</v>
+        <v>0.003920612697117654</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2125232728483995</v>
+        <v>-0.2061924294803524</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.04072918109284277</v>
+        <v>0.0432372019506587</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02987941375141849</v>
+        <v>0.02860952872387649</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1731303093329359</v>
+        <v>-0.1706462956082391</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06690876943005641</v>
+        <v>0.06964848304625751</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.03444259454503468</v>
+        <v>0.03290561146761019</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1687905596984031</v>
+        <v>-0.1657928009763649</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1859541185688631</v>
+        <v>0.183471222194711</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1340373924068901</v>
+        <v>0.1412798537036206</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.07338368752252974</v>
+        <v>-0.06563783143086183</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1138466989748053</v>
+        <v>0.11756969489152</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1083154058770504</v>
+        <v>0.1039749297253222</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0938995963105408</v>
+        <v>-0.09065459134455688</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.134818352191641</v>
+        <v>0.1364196969894239</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1027536578468321</v>
+        <v>0.1016504242353417</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.09418548638940569</v>
+        <v>-0.09348764078485636</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>9.258807534077352</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-1.681059315027689</v>
+        <v>-1.681059315027683</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>6.090740415702312</v>
@@ -869,7 +869,7 @@
         <v>3.660183611752033</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-12.14887911256374</v>
+        <v>-12.14887911256376</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>7.200075338153339</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.093215820861227</v>
+        <v>5.214800946711684</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.989698112998535</v>
+        <v>5.555503394392394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.41317556636105</v>
+        <v>-4.923228261914306</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.592442987244342</v>
+        <v>2.238136952962348</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.4509513098786309</v>
+        <v>0.1027285559667056</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-15.2675317578193</v>
+        <v>-15.25914809255638</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4.873140973508404</v>
+        <v>4.72500985899497</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.179819486142858</v>
+        <v>4.238192942025118</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-8.960039491052513</v>
+        <v>-9.114768939452494</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.9305583027251</v>
+        <v>11.61899137267271</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>12.77108740403881</v>
+        <v>12.27040980329833</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.371224571966901</v>
+        <v>1.534843182189526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9.603749115128938</v>
+        <v>9.413615784451878</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.904187260772317</v>
+        <v>6.791300323038839</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-8.753919298484332</v>
+        <v>-9.078267249103888</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.683074481348982</v>
+        <v>9.6288948317059</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.938683216360396</v>
+        <v>9.109737357050143</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>-4.445664816439187</v>
+        <v>-4.437061505125237</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2401632344218444</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.04360482069273858</v>
+        <v>-0.04360482069273844</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1143862139263284</v>
@@ -974,7 +974,7 @@
         <v>0.06873951556762128</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2281601562844768</v>
+        <v>-0.2281601562844771</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1576790229361518</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.126467598387038</v>
+        <v>0.1263390602221381</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1496414394549755</v>
+        <v>0.1444636907777231</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1335748056397529</v>
+        <v>-0.1229867873709187</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.04736643574848651</v>
+        <v>0.03965033616809598</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.008089676420247964</v>
+        <v>0.002108480043563874</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2769036329867242</v>
+        <v>-0.2757947254760512</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1040993883104472</v>
+        <v>0.1001959498332105</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.08887525883888123</v>
+        <v>0.09225412614782096</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.1914977580999599</v>
+        <v>-0.1931974186492358</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3237889698868571</v>
+        <v>0.3134830447436796</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.3456839757606941</v>
+        <v>0.3397963596036909</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.03709516024804705</v>
+        <v>0.04160593682748216</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.188209463811153</v>
+        <v>0.1808036654654478</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1346276253778871</v>
+        <v>0.1312199883497131</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.17113782150788</v>
+        <v>-0.1772794243503474</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2185350107276131</v>
+        <v>0.2182218192099037</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2033826293348099</v>
+        <v>0.2065357593752139</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>-0.1009774332570854</v>
+        <v>-0.0990447791850763</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.009556748565288</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-6.907053434829108</v>
+        <v>-6.907053434829113</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.805515839087513</v>
@@ -1092,7 +1092,7 @@
         <v>-1.103721471972935</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-11.64218606714594</v>
+        <v>-11.64218606714595</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.809222202283135</v>
+        <v>1.636710583408244</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.40261453734774</v>
+        <v>-5.585032839374013</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-12.18242043588675</v>
+        <v>-12.78720380112782</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.323485072879461</v>
+        <v>-4.986738150498474</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-10.7024069280744</v>
+        <v>-10.36901181531313</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-23.08982887504174</v>
+        <v>-23.00880297430128</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.05860777934598355</v>
+        <v>0.5319330389457333</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.006841014219182</v>
+        <v>-5.567084603062358</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-15.85350328234727</v>
+        <v>-15.62338448616394</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>14.74335521816983</v>
+        <v>14.58276885058459</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.682979515925029</v>
+        <v>7.407053953880773</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.678141103605442</v>
+        <v>-0.8915436760424585</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.347224375652171</v>
+        <v>8.333199115458068</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.615915291110065</v>
+        <v>2.824064630185799</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-12.38445633914099</v>
+        <v>-11.43718741368577</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>9.896300053253286</v>
+        <v>9.868149619617403</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>3.104859242618592</v>
+        <v>2.988362688350761</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>-7.72997282599199</v>
+        <v>-7.300692599018022</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.02549698675025519</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1744419520362935</v>
+        <v>-0.1744419520362936</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.03444401757909227</v>
@@ -1197,7 +1197,7 @@
         <v>-0.02423676294847359</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.2556522737634639</v>
+        <v>-0.2556522737634641</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.04921922328723411</v>
+        <v>0.03870452193485143</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1274013835423661</v>
+        <v>-0.13232320656192</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2874794518900273</v>
+        <v>-0.2973394377058802</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.09458081697240867</v>
+        <v>-0.0891577162948753</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1927664553434971</v>
+        <v>-0.1900378024448163</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4102890390213993</v>
+        <v>-0.4110935018493127</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.006655638688600399</v>
+        <v>0.01059174148063706</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1232774444737496</v>
+        <v>-0.1152236635493473</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.3304433800139969</v>
+        <v>-0.3256748120781238</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4040691471847802</v>
+        <v>0.4009554930851725</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1785523170785257</v>
+        <v>0.2010106097894192</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.02311163515130214</v>
+        <v>-0.02470155013042645</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1685468619777169</v>
+        <v>0.1706985678620326</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.05235321191239391</v>
+        <v>0.05840733944516029</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2508707393758642</v>
+        <v>-0.2374426550854156</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2276952327875391</v>
+        <v>0.2286926764837801</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07194526392636981</v>
+        <v>0.06798893923032653</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>-0.1802389842024893</v>
+        <v>-0.171403950302121</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>4.14593157776909</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-8.5028232974107</v>
+        <v>-8.502823297410705</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.344025527939777</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>5.098780515958657</v>
+        <v>5.162727629076833</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.881126800620395</v>
+        <v>1.547277601829266</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-11.09263115312972</v>
+        <v>-10.96314327841164</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.068013575541267</v>
+        <v>3.160909580689082</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.297440243679762</v>
+        <v>-2.249854614342638</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-20.10970073509327</v>
+        <v>-19.41565148601436</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.767936102120664</v>
+        <v>4.733386470897766</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2138696295364588</v>
+        <v>0.4625118778299069</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-14.70216791369918</v>
+        <v>-14.63438497786305</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.779456903290461</v>
+        <v>10.00282990260977</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.800458569500485</v>
+        <v>6.538353128804271</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.079866480042391</v>
+        <v>-6.098172936406542</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7.808539269411963</v>
+        <v>7.784100613026414</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2.170138281165632</v>
+        <v>2.32004817348507</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-15.48452388854792</v>
+        <v>-15.02314107760138</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.25129407009114</v>
+        <v>8.226375986645184</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>3.74187343312027</v>
+        <v>3.809920941459206</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-11.40039538009191</v>
+        <v>-11.27798420463002</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.08610406086780134</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1765894108513882</v>
+        <v>-0.1765894108513884</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.08371877566236058</v>
@@ -1411,7 +1411,7 @@
         <v>0.03663993467627364</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.2326133208284699</v>
+        <v>-0.2326133208284698</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1023457859384381</v>
+        <v>0.1040428922586322</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.03634815630832559</v>
+        <v>0.03153845189095152</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2239959441288032</v>
+        <v>-0.2228251170448121</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04667069196049525</v>
+        <v>0.049060362000564</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03544655206760066</v>
+        <v>-0.03449922170320614</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3069086411176059</v>
+        <v>-0.3001913031624421</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08332483464558213</v>
+        <v>0.08284372153432043</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.003889943242300302</v>
+        <v>0.008026646156765866</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.259016128322166</v>
+        <v>-0.2571189446094427</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2080491770567484</v>
+        <v>0.2128248773186199</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1439569710663149</v>
+        <v>0.1397987704988239</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1286655446733175</v>
+        <v>-0.1299040201399485</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1247590762336583</v>
+        <v>0.1246281092734995</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03473654266500747</v>
+        <v>0.03675044858852876</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.2468693522540249</v>
+        <v>-0.2418748540556538</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1500659632888951</v>
+        <v>0.1490173694400943</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.06752815059326794</v>
+        <v>0.06870435156829645</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.2068657360418787</v>
+        <v>-0.204149159299063</v>
       </c>
     </row>
     <row r="28">
